--- a/图片/绘图用表格.xlsx
+++ b/图片/绘图用表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2E237E-D7DA-47CF-B033-96FA52FDDB5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C086C-ACC6-474B-960F-5BB11F589261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,21 @@
         <family val="1"/>
       </rPr>
       <t>1,1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=79</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +280,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +307,18 @@
     <fill>
       <patternFill patternType="lightTrellis"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -344,21 +384,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,13 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F6:W21"/>
+  <dimension ref="F6:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="I15" sqref="F12:I15"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="4"/>
+  </cols>
   <sheetData>
     <row r="6" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O6" s="5"/>
@@ -661,98 +726,210 @@
     </row>
     <row r="7" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O7" s="5"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="6:23" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="20" spans="6:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="6" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="20" spans="6:30" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="6:7" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="6" t="s">
+      <c r="K20" s="11">
+        <v>56</v>
+      </c>
+      <c r="L20" s="11">
+        <v>57</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>-2</v>
+      </c>
+      <c r="X20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>-2</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:30" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K21" s="12">
+        <v>79</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W21" s="9">
+        <v>-2</v>
+      </c>
+      <c r="X21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>1</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:30" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W23" s="9">
+        <v>-2</v>
+      </c>
+      <c r="X23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/图片/绘图用表格.xlsx
+++ b/图片/绘图用表格.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C086C-ACC6-474B-960F-5BB11F589261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F7C1A1-B7B8-4B2E-A4CF-166620C96757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F6:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:X23"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="21.4" customHeight="1" x14ac:dyDescent="0.2"/>
